--- a/volatility/src/2nd.xlsx
+++ b/volatility/src/2nd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushi_mld/git/volatility/volatility/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9F3D88-2B2C-9047-92B5-7E996208C4BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C7B94C-FA43-B945-B2A1-E36C51837F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11940" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>amount</t>
     <phoneticPr fontId="1"/>
@@ -144,10 +144,74 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EURAUD</t>
-  </si>
-  <si>
     <t>buy</t>
+  </si>
+  <si>
+    <t>AUDCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AUDJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AUDNZD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AUDUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CADJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURGBP</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>EURUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPAUD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NZDJPY</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>NZDUSD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>USDCAD</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>USDCHF</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>GBPUSD</t>
   </si>
 </sst>
 </file>
@@ -615,7 +679,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -639,7 +703,7 @@
         <v>735</v>
       </c>
       <c r="J1" s="1">
-        <f>VLOOKUP(B2,median!A1:B4,2)</f>
+        <f>VLOOKUP(B2,median!A1:B20,2)</f>
         <v>1.3</v>
       </c>
       <c r="K1" s="1">
@@ -862,7 +926,7 @@
   <dimension ref="B1:N20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -886,7 +950,7 @@
         <v>735</v>
       </c>
       <c r="J1" s="1">
-        <f>VLOOKUP(B2,median!A1:B4,2)</f>
+        <f>VLOOKUP(B2,median!A1:B20,2)</f>
         <v>2.1</v>
       </c>
       <c r="K1" s="1">
@@ -899,17 +963,17 @@
     </row>
     <row r="2" spans="2:14" ht="24" customHeight="1">
       <c r="B2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="D2" s="10">
         <v>1.1000000000000001</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>MID(B2,4,3)</f>
-        <v>AUD</v>
+        <v>USD</v>
       </c>
       <c r="N2" s="11" t="s">
         <v>16</v>
@@ -920,11 +984,11 @@
       <c r="C3" s="6"/>
       <c r="J3" s="1">
         <f>VLOOKUP(J2,'jpy rate'!A1:B2,2)</f>
-        <v>75</v>
+        <v>109.2</v>
       </c>
       <c r="K3" s="1">
         <f>100/J3</f>
-        <v>1.3333333333333333</v>
+        <v>0.91575091575091572</v>
       </c>
     </row>
     <row r="4" spans="2:14" ht="24" customHeight="1">
@@ -938,7 +1002,7 @@
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>466.66666666666663</v>
+        <v>320.5128205128205</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>3</v>
@@ -947,12 +1011,12 @@
     <row r="6" spans="2:14" ht="24" customHeight="1">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>7000</v>
+        <v>4807</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5*3/20</f>
-        <v>70</v>
+        <v>48.076923076923073</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>4</v>
@@ -1200,10 +1264,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="21" customHeight="1"/>
@@ -1213,33 +1277,161 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B1" s="5">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="21" customHeight="1">
       <c r="A4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="21" customHeight="1">
+      <c r="A5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="21" customHeight="1">
+      <c r="A6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="21" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="21" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="21" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="21" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="21" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="21" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="21" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="21" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="21" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="21" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="21" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="21" customHeight="1">
+      <c r="A20" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B20" s="5">
         <v>1.3</v>
       </c>
     </row>

--- a/volatility/src/2nd.xlsx
+++ b/volatility/src/2nd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atsushi_mld/git/volatility/volatility/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C7B94C-FA43-B945-B2A1-E36C51837F7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADA9AEE-563B-CB4A-9770-963F45E08B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11920" yWindow="460" windowWidth="26100" windowHeight="21140" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jpy" sheetId="51" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>amount</t>
     <phoneticPr fontId="1"/>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>CHFJPY</t>
-  </si>
-  <si>
-    <t>CHFJPY</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>AUDCHF</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -212,6 +206,9 @@
   </si>
   <si>
     <t>GBPUSD</t>
+  </si>
+  <si>
+    <t>USDJPY</t>
   </si>
 </sst>
 </file>
@@ -678,8 +675,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -700,7 +697,7 @@
       </c>
       <c r="I1" s="1">
         <f>amount!B1</f>
-        <v>735</v>
+        <v>1000</v>
       </c>
       <c r="J1" s="1">
         <f>VLOOKUP(B2,median!A1:B20,2)</f>
@@ -711,25 +708,25 @@
         <v>0.76923076923076916</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="24" customHeight="1">
       <c r="B2" s="10" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="10">
-        <v>100</v>
+        <v>109.1635</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>MID(B2,4,3)</f>
         <v>JPY</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="24" customHeight="1">
@@ -754,7 +751,7 @@
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>565.38461538461536</v>
+        <v>769.23076923076917</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>3</v>
@@ -763,12 +760,12 @@
     <row r="6" spans="2:14" ht="24" customHeight="1">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>8480</v>
+        <v>11538</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5*3/20</f>
-        <v>84.807692307692307</v>
+        <v>115.38461538461539</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>4</v>
@@ -796,7 +793,7 @@
       </c>
       <c r="C9" s="9">
         <f>IF($C$2="buy",I11,J11)</f>
-        <v>98.7</v>
+        <v>107.8635</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
@@ -805,7 +802,7 @@
       </c>
       <c r="C10" s="9">
         <f>IF($C$2="buy",I12,J12)</f>
-        <v>101.3</v>
+        <v>110.4635</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -815,11 +812,11 @@
       <c r="D11" s="3"/>
       <c r="I11" s="1">
         <f>D2+I7</f>
-        <v>101.3</v>
+        <v>110.4635</v>
       </c>
       <c r="J11" s="1">
         <f>I12</f>
-        <v>98.7</v>
+        <v>107.8635</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1">
@@ -828,15 +825,15 @@
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>100.65</v>
+        <v>109.8135</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
-        <v>98.7</v>
+        <v>107.8635</v>
       </c>
       <c r="J12" s="1">
         <f>I11</f>
-        <v>101.3</v>
+        <v>110.4635</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1">
@@ -845,7 +842,7 @@
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>101.95</v>
+        <v>111.1135</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1">
@@ -854,15 +851,15 @@
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>99.350000000000009</v>
+        <v>108.51350000000001</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>99.35</v>
+        <v>108.51349999999999</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>100.65</v>
+        <v>109.8135</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1">
@@ -870,11 +867,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>98.05</v>
+        <v>107.2135</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>101.95</v>
+        <v>111.1135</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1">
@@ -882,11 +879,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>100.64999999999999</v>
+        <v>109.81349999999999</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>99.350000000000009</v>
+        <v>108.51350000000001</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24" customHeight="1">
@@ -925,8 +922,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.83203125" defaultRowHeight="24" customHeight="1"/>
@@ -947,7 +944,7 @@
       </c>
       <c r="I1" s="1">
         <f>amount!B1</f>
-        <v>735</v>
+        <v>1000</v>
       </c>
       <c r="J1" s="1">
         <f>VLOOKUP(B2,median!A1:B20,2)</f>
@@ -958,25 +955,25 @@
         <v>0.47619047619047616</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="2:14" ht="24" customHeight="1">
       <c r="B2" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D2" s="10">
-        <v>1.1000000000000001</v>
+        <v>1.284572</v>
       </c>
       <c r="J2" s="1" t="str">
         <f>MID(B2,4,3)</f>
         <v>USD</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="24" customHeight="1">
@@ -1002,7 +999,7 @@
       <c r="C5" s="6"/>
       <c r="K5" s="1">
         <f>I1*K1*K3</f>
-        <v>320.5128205128205</v>
+        <v>436.07186464329317</v>
       </c>
       <c r="N5" s="8" t="s">
         <v>3</v>
@@ -1011,12 +1008,12 @@
     <row r="6" spans="2:14" ht="24" customHeight="1">
       <c r="B6" s="2">
         <f>INT(K6*100)</f>
-        <v>4807</v>
+        <v>6541</v>
       </c>
       <c r="C6" s="6"/>
       <c r="K6" s="1">
         <f>K5*3/20</f>
-        <v>48.076923076923073</v>
+        <v>65.410779696493975</v>
       </c>
       <c r="N6" s="8" t="s">
         <v>4</v>
@@ -1044,7 +1041,7 @@
       </c>
       <c r="C9" s="9">
         <f>IF($C$2="buy",I11,J11)</f>
-        <v>1.121</v>
+        <v>1.2635720000000001</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="24" customHeight="1">
@@ -1053,7 +1050,7 @@
       </c>
       <c r="C10" s="9">
         <f>IF($C$2="buy",I12,J12)</f>
-        <v>1.0790000000000002</v>
+        <v>1.305572</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -1063,11 +1060,11 @@
       <c r="D11" s="3"/>
       <c r="I11" s="1">
         <f>D2+I7</f>
-        <v>1.121</v>
+        <v>1.305572</v>
       </c>
       <c r="J11" s="1">
         <f>I12</f>
-        <v>1.0790000000000002</v>
+        <v>1.2635720000000001</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="24" customHeight="1">
@@ -1076,15 +1073,15 @@
       </c>
       <c r="C12" s="9">
         <f>IF($C$2="buy",I14,J14)</f>
-        <v>1.0895000000000001</v>
+        <v>1.295072</v>
       </c>
       <c r="I12" s="1">
         <f>D2-I7</f>
-        <v>1.0790000000000002</v>
+        <v>1.2635720000000001</v>
       </c>
       <c r="J12" s="1">
         <f>I11</f>
-        <v>1.121</v>
+        <v>1.305572</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="24" customHeight="1">
@@ -1093,7 +1090,7 @@
       </c>
       <c r="C13" s="9">
         <f>IF($C$2="buy",I15,J15)</f>
-        <v>1.0685000000000002</v>
+        <v>1.3160719999999999</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="24" customHeight="1">
@@ -1102,15 +1099,15 @@
       </c>
       <c r="C14" s="9">
         <f>IF($C$2="buy",I16,J16)</f>
-        <v>1.1105</v>
+        <v>1.2740720000000001</v>
       </c>
       <c r="I14" s="1">
         <f>D2-I8</f>
-        <v>1.0895000000000001</v>
+        <v>1.2740720000000001</v>
       </c>
       <c r="J14" s="1">
         <f>D2+I8</f>
-        <v>1.1105</v>
+        <v>1.295072</v>
       </c>
     </row>
     <row r="15" spans="2:14" ht="24" customHeight="1">
@@ -1118,11 +1115,11 @@
       <c r="C15" s="6"/>
       <c r="I15" s="1">
         <f>I14-I7</f>
-        <v>1.0685000000000002</v>
+        <v>1.2530720000000002</v>
       </c>
       <c r="J15" s="1">
         <f>J14+I7</f>
-        <v>1.1315</v>
+        <v>1.3160719999999999</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="24" customHeight="1">
@@ -1130,11 +1127,11 @@
       <c r="C16" s="6"/>
       <c r="I16" s="1">
         <f>I14+I7</f>
-        <v>1.1105</v>
+        <v>1.295072</v>
       </c>
       <c r="J16" s="1">
         <f>J14-I7</f>
-        <v>1.0895000000000001</v>
+        <v>1.2740720000000001</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="24" customHeight="1">
@@ -1174,7 +1171,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="21" customHeight="1"/>
@@ -1187,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5">
-        <v>735</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
@@ -1222,7 +1219,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="21" customHeight="1"/>
@@ -1232,15 +1229,15 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="5">
-        <v>75</v>
+        <v>74.7</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5">
         <v>109.2</v>
@@ -1277,7 +1274,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="5">
         <v>1.1000000000000001</v>
@@ -1285,7 +1282,7 @@
     </row>
     <row r="2" spans="1:2" ht="21" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5">
         <v>1.5</v>
@@ -1293,7 +1290,7 @@
     </row>
     <row r="3" spans="1:2" ht="21" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B3" s="5">
         <v>1.1000000000000001</v>
@@ -1301,7 +1298,7 @@
     </row>
     <row r="4" spans="1:2" ht="21" customHeight="1">
       <c r="A4" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
@@ -1309,7 +1306,7 @@
     </row>
     <row r="5" spans="1:2" ht="21" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5">
         <v>1.4</v>
@@ -1317,7 +1314,7 @@
     </row>
     <row r="6" spans="1:2" ht="21" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5">
         <v>1.3</v>
@@ -1325,7 +1322,7 @@
     </row>
     <row r="7" spans="1:2" ht="21" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="5">
         <v>2.1</v>
@@ -1333,7 +1330,7 @@
     </row>
     <row r="8" spans="1:2" ht="21" customHeight="1">
       <c r="A8" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -1341,7 +1338,7 @@
     </row>
     <row r="9" spans="1:2" ht="21" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5">
         <v>1.2</v>
@@ -1349,7 +1346,7 @@
     </row>
     <row r="10" spans="1:2" ht="21" customHeight="1">
       <c r="A10" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5">
         <v>1.6</v>
@@ -1357,7 +1354,7 @@
     </row>
     <row r="11" spans="1:2" ht="21" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <v>1.3</v>
@@ -1365,7 +1362,7 @@
     </row>
     <row r="12" spans="1:2" ht="21" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5">
         <v>3.3</v>
@@ -1373,7 +1370,7 @@
     </row>
     <row r="13" spans="1:2" ht="21" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5">
         <v>2</v>
@@ -1381,7 +1378,7 @@
     </row>
     <row r="14" spans="1:2" ht="21" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5">
         <v>2.6</v>
@@ -1389,7 +1386,7 @@
     </row>
     <row r="15" spans="1:2" ht="21" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="5">
         <v>2.1</v>
@@ -1397,7 +1394,7 @@
     </row>
     <row r="16" spans="1:2" ht="21" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5">
         <v>1.3</v>
@@ -1405,7 +1402,7 @@
     </row>
     <row r="17" spans="1:2" ht="21" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="5">
         <v>1.2</v>
@@ -1413,7 +1410,7 @@
     </row>
     <row r="18" spans="1:2" ht="21" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="5">
         <v>1.5</v>
@@ -1421,7 +1418,7 @@
     </row>
     <row r="19" spans="1:2" ht="21" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5">
         <v>1.2</v>
@@ -1429,7 +1426,7 @@
     </row>
     <row r="20" spans="1:2" ht="21" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" s="5">
         <v>1.3</v>
